--- a/Gantt-chart.xlsx
+++ b/Gantt-chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CA7E9-CA51-4193-99AC-8FD4B3CE5C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EBF931-4348-4553-9F55-8C915B9184AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Gyakorlat: hétfő 19:00-19:45</t>
+  </si>
+  <si>
+    <t>Próba</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -808,9 +811,6 @@
     <xf numFmtId="165" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -820,11 +820,17 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -898,6 +904,43 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -917,20 +960,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -974,16 +1003,11 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -995,17 +1019,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1036,73 +1049,6 @@
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1180,6 +1126,36 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -1194,6 +1170,36 @@
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1721,18 +1727,18 @@
   <dimension ref="A1:CE54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:M4"/>
+      <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
@@ -1771,135 +1777,135 @@
       <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="67"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="67">
+      <c r="D3" s="70">
         <v>45565</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
       <c r="F4" s="71"/>
-      <c r="G4" s="68">
+      <c r="G4" s="67">
         <f>G5</f>
         <v>45565</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="68">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="67">
         <f>N5</f>
         <v>45572</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="68">
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="67">
         <f>U5</f>
         <v>45579</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="68">
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="67">
         <f>AB5</f>
         <v>45586</v>
       </c>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="68">
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="67">
         <f>AI5</f>
         <v>45593</v>
       </c>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="68">
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="67">
         <f>AP5</f>
         <v>45600</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="68">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="67">
         <f>AW5</f>
         <v>45607</v>
       </c>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="68">
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="67">
         <f>BD5</f>
         <v>45614</v>
       </c>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="68">
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="67">
         <f>BK5</f>
         <v>45621</v>
       </c>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="69"/>
-      <c r="BO4" s="69"/>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="70"/>
-      <c r="BR4" s="68">
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="67">
         <f>BR5</f>
         <v>45628</v>
       </c>
-      <c r="BS4" s="69"/>
-      <c r="BT4" s="69"/>
-      <c r="BU4" s="69"/>
-      <c r="BV4" s="69"/>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="70"/>
-      <c r="BY4" s="68">
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="69"/>
+      <c r="BY4" s="67">
         <f>BY5</f>
         <v>45635</v>
       </c>
-      <c r="BZ4" s="69"/>
-      <c r="CA4" s="69"/>
-      <c r="CB4" s="69"/>
-      <c r="CC4" s="69"/>
-      <c r="CD4" s="69"/>
-      <c r="CE4" s="70"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="68"/>
+      <c r="CE4" s="69"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -6493,6 +6499,11 @@
       <c r="CD51" s="22"/>
       <c r="CE51" s="22"/>
     </row>
+    <row r="52" spans="1:83" ht="30" customHeight="1">
+      <c r="C52" s="73" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="53" spans="1:83" ht="30" customHeight="1">
       <c r="C53" s="8"/>
       <c r="E53" s="18"/>
@@ -6502,11 +6513,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -6516,6 +6522,11 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:R51 AN30:AT51 AW37:BA51 U39:AM51 BY39:CC51 BD51:BX51">
     <cfRule type="expression" dxfId="40" priority="4">
@@ -6544,25 +6555,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:Y10 AB7:AF12">
-    <cfRule type="expression" dxfId="34" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="92">
+      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="92">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="94">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AA15">
-    <cfRule type="expression" dxfId="31" priority="52">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="50">
+    <cfRule type="expression" dxfId="30" priority="50">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="52">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:AA37">
@@ -6588,47 +6599,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AM19">
-    <cfRule type="expression" dxfId="22" priority="82">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    <cfRule type="expression" dxfId="22" priority="80">
+      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="81" stopIfTrue="1">
       <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="80">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
+    <cfRule type="expression" dxfId="20" priority="82">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT18 AO20 AN21:AO28 AN29">
-    <cfRule type="expression" dxfId="19" priority="44">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="45" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="46">
+    <cfRule type="expression" dxfId="18" priority="46">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="44">
+      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU23:AV24 AT26:AV26 AU28:AV31 AU32">
-    <cfRule type="expression" dxfId="16" priority="41">
+    <cfRule type="expression" dxfId="16" priority="43">
+      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="41">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="43">
-      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU33:AV51">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:BC21 BC22 BB23:BC33 BC34 BB37">
@@ -6643,14 +6654,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB38:BC51">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD7:CC38 U16:Y37">

--- a/Gantt-chart.xlsx
+++ b/Gantt-chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EBF931-4348-4553-9F55-8C915B9184AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFD8F4-3DA5-44AC-9D24-5AC78F7F5ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+  <si>
+    <t>Szállás</t>
+  </si>
+  <si>
+    <t>Magyari Máté</t>
+  </si>
+  <si>
+    <t>Gergely Péter</t>
+  </si>
+  <si>
+    <t>Pernyész Bettina</t>
+  </si>
+  <si>
+    <t>Mindenki</t>
+  </si>
+  <si>
+    <t>Nagy Ádám</t>
+  </si>
+  <si>
+    <t>Fekete Kristóf</t>
+  </si>
+  <si>
+    <t>Gyakorlat: hétfő 19:00-19:45</t>
+  </si>
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -57,34 +84,13 @@
     <t>1. Mérföldkő</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Mérföldkő </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Mérföldkő </t>
-  </si>
-  <si>
-    <t>Mindenki</t>
-  </si>
-  <si>
-    <t>Teszt Elek</t>
-  </si>
-  <si>
-    <t>Lev Elek</t>
-  </si>
-  <si>
-    <t>Remek Elek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Mérföldkő </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
-  </si>
-  <si>
     <t>8.1.1. Projektterv kitöltése</t>
   </si>
   <si>
     <t>8.1.2. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Mérföldkő </t>
   </si>
   <si>
     <t>8.2.1. Use Case diagram</t>
@@ -108,94 +114,7 @@
     <t>8.2.7. Bemutató elkészítése</t>
   </si>
   <si>
-    <t>8.3.1. Felhasználók kezelése (admin, raktáros, sofőr) (CR)</t>
-  </si>
-  <si>
-    <t>8.3.2. Felhasználók kezelése (admin, raktáros, sofőr) (UD)</t>
-  </si>
-  <si>
-    <t>8.3.4. Felhasználói munkamenet megvalósítása több jogosultsági szinttel</t>
-  </si>
-  <si>
-    <t>8.3.5. Raktárak kezelése (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.6. Raktárkezeléshez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>8.3.7. Árukészletek kezelése (C)</t>
-  </si>
-  <si>
-    <t>8.3.8. Árukészletek kezelése (R)</t>
-  </si>
-  <si>
-    <t>8.3.9. Árukészletek kezelése (UD)</t>
-  </si>
-  <si>
-    <t>8.3.10. Árukészletek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>8.3.12. Fuvarok/szállítmányok kezelése (CR)</t>
-  </si>
-  <si>
-    <t>8.3.13. Fuvarok/szállítmányok kezelése (UD)</t>
-  </si>
-  <si>
-    <t>8.3.14. Fuvarok/szállítmányok szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>8.3.15. Email-es kiértesítés új szállítmány esetén az adott raktárosnak és sofőrnek</t>
-  </si>
-  <si>
-    <t>8.3.16. Fuvar útvonalának megjelenítése térképen a kezdő és a végponttal együtt</t>
-  </si>
-  <si>
-    <t>8.3.17. Biztonsági mentés automatikus létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.18. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
-  </si>
-  <si>
-    <t>8.3.19. Bemutató elkészítése</t>
-  </si>
-  <si>
-    <t>8.4.1. Javított minőségű prototípus új funkciókkal</t>
-  </si>
-  <si>
-    <t>8.4.2. Javított minőségű prototípus javított funkciókkal</t>
-  </si>
-  <si>
-    <t>8.4.3. Javított minőségű prototípus a korábbi hiányzó funkciókkal</t>
-  </si>
-  <si>
-    <t>8.4.4. Felhasználói munkamenet tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.5. Raktárak kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.6. Árukészletek kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.7. Járművek kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.8. Fuvarok kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.9. Email-es funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.10. Térképes funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.11. Biztonsági mentés tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.12. Bemutató elkészítése</t>
-  </si>
-  <si>
-    <t>8.3.11. Járművek kezelése (CRUD) és a szükséges adatok létrehozása az adatbázisban</t>
+    <t xml:space="preserve">3. Mérföldkő </t>
   </si>
   <si>
     <r>
@@ -211,13 +130,88 @@
     </r>
   </si>
   <si>
-    <t>Szállás</t>
+    <t>8.3.4. Felhasználói munkamenet megvalósítása több jogosultsági szinttel</t>
   </si>
   <si>
-    <t>Gyakorlat: hétfő 19:00-19:45</t>
+    <t>8.3.5. Foglalások kezelése (CR)</t>
   </si>
   <si>
-    <t>Próba</t>
+    <t>8.3.6. Foglalások kezelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.7. Szállások kezelése (CR)</t>
+  </si>
+  <si>
+    <t>8.3.8. Szállások kezelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.9. Foglaláshoz szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>8.3.10. Szállások kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>8.3.11. Email-es kiértesítés új foglalás esetén az adott szállásadónak</t>
+  </si>
+  <si>
+    <t>8.3.12. Szállásadó értékelése (CR)</t>
+  </si>
+  <si>
+    <t>8.3.13. Szállásadó értékelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.14. Szállásfoglaló értékelése (CR)</t>
+  </si>
+  <si>
+    <t>8.3.15. Szállásfoglaló értékelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.16. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
+  </si>
+  <si>
+    <t>8.3.17. A prototípus kitelepítése éles környezetbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Mérföldkő </t>
+  </si>
+  <si>
+    <t>8.4.1. Javított minőségű prototípus új funkciókkal</t>
+  </si>
+  <si>
+    <t>8.4.2. Javított minőségű prototípus javított funkciókkal</t>
+  </si>
+  <si>
+    <t>8.4.3. Javított minőségű prototípus a korábbi hiányzó funkciókkal</t>
+  </si>
+  <si>
+    <t>8.4.4. Felhasználói munkamenet tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.5. Foglalások kezelésének tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.6. Szállások kezelésének tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.7. Email-es funkciók tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.8. Biztonsági mentés tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.9. A prototípus kitelepítésének frissítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
+  </si>
+  <si>
+    <t>Péter Gergely</t>
+  </si>
+  <si>
+    <t>8.3.1. Felhasználók kezelése (admin, szálláshirdető, szállásfoglaló) (CR)</t>
+  </si>
+  <si>
+    <t>8.3.2. Felhasználók kezelése (admin, szálláshirdető, szállásfoglaló) (UD)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +226,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +369,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,8 +474,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -607,6 +632,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -637,7 +783,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -710,9 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,6 +954,24 @@
     <xf numFmtId="165" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -820,17 +981,95 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -847,417 +1086,11 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1357,15 +1190,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="totalRow" dxfId="47"/>
-      <tableStyleElement type="firstColumn" dxfId="46"/>
-      <tableStyleElement type="lastColumn" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1436,10 +1269,10 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF215881"/>
+      <color rgb="FF969696"/>
       <color rgb="FF4A6F9C"/>
-      <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
-      <color rgb="FF969696"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
@@ -1724,18 +1557,18 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE54"/>
+  <dimension ref="A1:CE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.21875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="83" width="2.5546875" customWidth="1"/>
@@ -1743,185 +1576,195 @@
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="17"/>
-      <c r="B1" s="35" t="s">
-        <v>54</v>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="I1" s="33"/>
+      <c r="I1" s="30"/>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="30"/>
       <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="33"/>
+        <v>51</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="30"/>
       <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="66"/>
     </row>
     <row r="2" spans="1:83" ht="25.5" customHeight="1">
-      <c r="B2" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="70"/>
+      <c r="B2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="71"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="70">
+      <c r="D3" s="71">
         <v>45565</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="67">
+      <c r="F4" s="75"/>
+      <c r="G4" s="72">
         <f>G5</f>
         <v>45565</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="72">
         <f>N5</f>
         <v>45572</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="67">
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="72">
         <f>U5</f>
         <v>45579</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="67">
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="72">
         <f>AB5</f>
         <v>45586</v>
       </c>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="67">
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="72">
         <f>AI5</f>
         <v>45593</v>
       </c>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="67">
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="72">
         <f>AP5</f>
         <v>45600</v>
       </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="67">
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="72">
         <f>AW5</f>
         <v>45607</v>
       </c>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="67">
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="72">
         <f>BD5</f>
         <v>45614</v>
       </c>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="67">
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="72">
         <f>BK5</f>
         <v>45621</v>
       </c>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="67">
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="73"/>
+      <c r="BN4" s="73"/>
+      <c r="BO4" s="73"/>
+      <c r="BP4" s="73"/>
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="72">
         <f>BR5</f>
         <v>45628</v>
       </c>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="67">
+      <c r="BS4" s="73"/>
+      <c r="BT4" s="73"/>
+      <c r="BU4" s="73"/>
+      <c r="BV4" s="73"/>
+      <c r="BW4" s="73"/>
+      <c r="BX4" s="74"/>
+      <c r="BY4" s="72">
         <f>BY5</f>
         <v>45635</v>
       </c>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="69"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CB4" s="73"/>
+      <c r="CC4" s="73"/>
+      <c r="CD4" s="73"/>
+      <c r="CE4" s="74"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
       <c r="B5" s="24" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="72"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="76"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45565</v>
@@ -1931,7 +1774,7 @@
         <v>45566</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5:AV5" si="0">H5+1</f>
+        <f t="shared" ref="G5:AV5" si="0">H5+1</f>
         <v>45567</v>
       </c>
       <c r="J5" s="5">
@@ -2315,83 +2158,83 @@
     </row>
     <row r="7" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="10"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
       <c r="AT7" s="14"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
       <c r="AW7" s="14"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
       <c r="BA7" s="14"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
       <c r="BD7" s="14"/>
       <c r="BE7" s="14"/>
       <c r="BF7" s="14"/>
       <c r="BG7" s="14"/>
       <c r="BH7" s="14"/>
-      <c r="BI7" s="27"/>
-      <c r="BJ7" s="27"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
       <c r="BK7" s="14"/>
       <c r="BL7" s="14"/>
       <c r="BM7" s="14"/>
       <c r="BN7" s="14"/>
       <c r="BO7" s="14"/>
-      <c r="BP7" s="27"/>
-      <c r="BQ7" s="27"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
       <c r="BR7" s="14"/>
       <c r="BS7" s="14"/>
       <c r="BT7" s="14"/>
       <c r="BU7" s="14"/>
       <c r="BV7" s="14"/>
-      <c r="BW7" s="27"/>
-      <c r="BX7" s="27"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
       <c r="BY7" s="14"/>
       <c r="BZ7" s="14"/>
       <c r="CA7" s="14"/>
@@ -2402,34 +2245,35 @@
     </row>
     <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="44">
+      <c r="C8" s="40" t="str">
+        <f>AE1</f>
+        <v>Mindenki</v>
+      </c>
+      <c r="D8" s="41">
         <v>45565</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="41">
         <v>45578</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="14"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
@@ -2495,33 +2339,34 @@
     </row>
     <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="44">
-        <v>45575</v>
-      </c>
-      <c r="E9" s="44">
-        <v>45579</v>
+      <c r="C9" s="40" t="str">
+        <f>J1</f>
+        <v>Magyari Máté</v>
+      </c>
+      <c r="D9" s="41">
+        <v>45569</v>
+      </c>
+      <c r="E9" s="41">
+        <v>45570</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -2588,19 +2433,19 @@
     </row>
     <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="11"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -2610,9 +2455,9 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
@@ -2675,23 +2520,23 @@
     </row>
     <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="50">
-        <v>44474</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="B11" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="47">
+        <v>45580</v>
+      </c>
+      <c r="E11" s="47">
         <f>D11+2</f>
-        <v>44476</v>
+        <v>45582</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="27"/>
@@ -2703,12 +2548,12 @@
       <c r="R11" s="14"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="27"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -2769,18 +2614,18 @@
     </row>
     <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="50">
-        <v>44474</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="B12" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="47">
+        <v>45581</v>
+      </c>
+      <c r="E12" s="47">
         <f>D12+3</f>
-        <v>44477</v>
+        <v>45584</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="14"/>
@@ -2798,12 +2643,12 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="89"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
@@ -2863,18 +2708,19 @@
     </row>
     <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="50">
-        <v>44480</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="B13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="46" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D13" s="47">
+        <v>45582</v>
+      </c>
+      <c r="E13" s="47">
         <f>D13+2</f>
-        <v>44482</v>
+        <v>45584</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="14"/>
@@ -2893,14 +2739,14 @@
       <c r="T13" s="27"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="27"/>
@@ -2957,18 +2803,19 @@
     </row>
     <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="50">
-        <v>44480</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="B14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="46" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D14" s="47">
+        <v>45583</v>
+      </c>
+      <c r="E14" s="47">
         <f>D14+3</f>
-        <v>44483</v>
+        <v>45586</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
@@ -2988,14 +2835,14 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
@@ -3051,18 +2898,19 @@
     </row>
     <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="50">
-        <v>44475</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="B15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="46" t="str">
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
+      </c>
+      <c r="D15" s="47">
+        <v>45584</v>
+      </c>
+      <c r="E15" s="47">
         <f>D15+2</f>
-        <v>44477</v>
+        <v>45586</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="14"/>
@@ -3081,13 +2929,13 @@
       <c r="T15" s="27"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="90"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
@@ -3145,18 +2993,19 @@
     </row>
     <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="50">
-        <v>44478</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="B16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="46" t="str">
+        <f>J1</f>
+        <v>Magyari Máté</v>
+      </c>
+      <c r="D16" s="47">
+        <v>45585</v>
+      </c>
+      <c r="E16" s="47">
         <f>D16+2</f>
-        <v>44480</v>
+        <v>45587</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="14"/>
@@ -3178,11 +3027,11 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="79"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
       <c r="AG16" s="27"/>
@@ -3239,18 +3088,19 @@
     </row>
     <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="50">
-        <v>44484</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="B17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="46" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D17" s="47">
+        <v>45586</v>
+      </c>
+      <c r="E17" s="47">
         <f>D17</f>
-        <v>44484</v>
+        <v>45586</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="14"/>
@@ -3273,12 +3123,12 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="77"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="30"/>
+      <c r="AF17" s="14"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="27"/>
       <c r="AI17" s="14"/>
@@ -3333,107 +3183,108 @@
     </row>
     <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="12"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="32"/>
-      <c r="AZ18" s="32"/>
-      <c r="BA18" s="32"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="32"/>
-      <c r="BU18" s="32"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="32"/>
-      <c r="BX18" s="32"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="32"/>
-      <c r="CA18" s="32"/>
-      <c r="CB18" s="32"/>
-      <c r="CC18" s="32"/>
-      <c r="CD18" s="32"/>
-      <c r="CE18" s="32"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="100"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="29"/>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="29"/>
+      <c r="BM18" s="29"/>
+      <c r="BN18" s="29"/>
+      <c r="BO18" s="29"/>
+      <c r="BP18" s="29"/>
+      <c r="BQ18" s="29"/>
+      <c r="BR18" s="29"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
+      <c r="BU18" s="29"/>
+      <c r="BV18" s="29"/>
+      <c r="BW18" s="29"/>
+      <c r="BX18" s="29"/>
+      <c r="BY18" s="29"/>
+      <c r="BZ18" s="29"/>
+      <c r="CA18" s="29"/>
+      <c r="CB18" s="29"/>
+      <c r="CC18" s="29"/>
+      <c r="CD18" s="29"/>
+      <c r="CE18" s="29"/>
     </row>
     <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="56">
-        <v>44492</v>
-      </c>
-      <c r="E19" s="56">
+      <c r="B19" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="52" t="str">
+        <f>Q1</f>
+        <v>Péter Gergely</v>
+      </c>
+      <c r="D19" s="53">
+        <v>45594</v>
+      </c>
+      <c r="E19" s="53">
         <f>D19+4</f>
-        <v>44496</v>
+        <v>45598</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="14"/>
@@ -3465,15 +3316,15 @@
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
       <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
+      <c r="AJ19" s="88"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="88"/>
+      <c r="AN19" s="88"/>
+      <c r="AO19" s="89"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
       <c r="AT19" s="14"/>
       <c r="AU19" s="27"/>
@@ -3516,18 +3367,19 @@
     </row>
     <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="56">
-        <v>44489</v>
-      </c>
-      <c r="E20" s="56">
+      <c r="B20" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="52" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D20" s="53">
+        <v>45595</v>
+      </c>
+      <c r="E20" s="53">
         <f>D20+3</f>
-        <v>44492</v>
+        <v>45598</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="14"/>
@@ -3559,12 +3411,12 @@
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
       <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="27"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="92"/>
+      <c r="AO20" s="89"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
@@ -3610,18 +3462,19 @@
     </row>
     <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="56">
-        <v>44488</v>
-      </c>
-      <c r="E21" s="56">
+      <c r="B21" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="52" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D21" s="53">
+        <v>45596</v>
+      </c>
+      <c r="E21" s="53">
         <f>D21+2</f>
-        <v>44490</v>
+        <v>45598</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14"/>
@@ -3653,19 +3506,19 @@
       <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
       <c r="AI21" s="14"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="80"/>
+      <c r="AS21" s="80"/>
+      <c r="AT21" s="80"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
       <c r="AW21" s="14"/>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
@@ -3704,18 +3557,19 @@
     </row>
     <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E22" s="56">
+      <c r="B22" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="52" t="str">
+        <f>J1</f>
+        <v>Magyari Máté</v>
+      </c>
+      <c r="D22" s="53">
+        <v>45597</v>
+      </c>
+      <c r="E22" s="53">
         <f>D22+9</f>
-        <v>44506</v>
+        <v>45606</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="14"/>
@@ -3749,23 +3603,23 @@
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="85"/>
+      <c r="AN22" s="85"/>
+      <c r="AO22" s="85"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="27"/>
       <c r="BC22" s="27"/>
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>
@@ -3798,18 +3652,19 @@
     </row>
     <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E23" s="56">
+      <c r="B23" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="52" t="str">
+        <f>Q1</f>
+        <v>Péter Gergely</v>
+      </c>
+      <c r="D23" s="53">
+        <v>45598</v>
+      </c>
+      <c r="E23" s="53">
         <f>D23+2</f>
-        <v>44503</v>
+        <v>45600</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="14"/>
@@ -3844,19 +3699,19 @@
       <c r="AJ23" s="14"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
+      <c r="AQ23" s="102"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
       <c r="BA23" s="14"/>
       <c r="BB23" s="27"/>
@@ -3892,18 +3747,19 @@
     </row>
     <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="56">
-        <v>44494</v>
-      </c>
-      <c r="E24" s="56">
-        <f>D24+3</f>
-        <v>44497</v>
+      <c r="B24" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="52" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D24" s="53">
+        <v>45599</v>
+      </c>
+      <c r="E24" s="53">
+        <f>D24+2</f>
+        <v>45601</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="14"/>
@@ -3939,12 +3795,12 @@
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="14"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="80"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
@@ -3986,18 +3842,19 @@
     </row>
     <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E25" s="56">
+      <c r="B25" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="52" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D25" s="53">
+        <v>45600</v>
+      </c>
+      <c r="E25" s="53">
         <f>D25+3</f>
-        <v>44500</v>
+        <v>45603</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
@@ -4034,14 +3891,14 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="96"/>
+      <c r="AQ25" s="96"/>
+      <c r="AR25" s="96"/>
+      <c r="AS25" s="96"/>
+      <c r="AT25" s="79"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
       <c r="AW25" s="14"/>
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
@@ -4080,18 +3937,19 @@
     </row>
     <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="56">
-        <v>44495</v>
-      </c>
-      <c r="E26" s="56">
+      <c r="B26" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="52" t="str">
+        <f>J1</f>
+        <v>Magyari Máté</v>
+      </c>
+      <c r="D26" s="53">
+        <v>45601</v>
+      </c>
+      <c r="E26" s="53">
         <f>D26+2</f>
-        <v>44497</v>
+        <v>45603</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
@@ -4129,12 +3987,12 @@
       <c r="AM26" s="14"/>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="27"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="85"/>
+      <c r="AR26" s="85"/>
+      <c r="AS26" s="85"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="91"/>
       <c r="AV26" s="27"/>
       <c r="AW26" s="14"/>
       <c r="AX26" s="14"/>
@@ -4174,18 +4032,19 @@
     </row>
     <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="56">
-        <v>44497</v>
-      </c>
-      <c r="E27" s="56">
-        <f>D27+4</f>
-        <v>44501</v>
+      <c r="B27" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="52" t="str">
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
+      </c>
+      <c r="D27" s="53">
+        <v>45602</v>
+      </c>
+      <c r="E27" s="53">
+        <f>D27+3</f>
+        <v>45605</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="14"/>
@@ -4224,13 +4083,13 @@
       <c r="AN27" s="27"/>
       <c r="AO27" s="27"/>
       <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="97"/>
+      <c r="AS27" s="97"/>
+      <c r="AT27" s="97"/>
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="80"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
@@ -4268,18 +4127,19 @@
     </row>
     <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="56">
-        <v>44494</v>
-      </c>
-      <c r="E28" s="56">
+      <c r="B28" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="52" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D28" s="53">
+        <v>45603</v>
+      </c>
+      <c r="E28" s="53">
         <f>D28+4</f>
-        <v>44498</v>
+        <v>45607</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="14"/>
@@ -4317,15 +4177,15 @@
       <c r="AM28" s="14"/>
       <c r="AN28" s="27"/>
       <c r="AO28" s="27"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="27"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="96"/>
+      <c r="AT28" s="96"/>
+      <c r="AU28" s="96"/>
+      <c r="AV28" s="96"/>
+      <c r="AW28" s="96"/>
+      <c r="AX28" s="79"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
       <c r="BA28" s="14"/>
@@ -4362,18 +4222,19 @@
     </row>
     <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="56">
-        <v>44493</v>
-      </c>
-      <c r="E29" s="56">
-        <f>D29+2</f>
-        <v>44495</v>
+      <c r="B29" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="52" t="str">
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
+      </c>
+      <c r="D29" s="53">
+        <v>45604</v>
+      </c>
+      <c r="E29" s="53">
+        <f>D29+3</f>
+        <v>45607</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="14"/>
@@ -4410,17 +4271,17 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="27"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AU29" s="27"/>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="14"/>
-      <c r="AY29" s="14"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="97"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="97"/>
+      <c r="AW29" s="97"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="80"/>
       <c r="AZ29" s="14"/>
       <c r="BA29" s="14"/>
       <c r="BB29" s="27"/>
@@ -4456,18 +4317,19 @@
     </row>
     <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E30" s="56">
-        <f>D30+3</f>
-        <v>44505</v>
+      <c r="B30" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="52" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D30" s="53">
+        <v>45605</v>
+      </c>
+      <c r="E30" s="53">
+        <f>D30+4</f>
+        <v>45609</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="14"/>
@@ -4509,14 +4371,14 @@
       <c r="AQ30" s="14"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="29"/>
-      <c r="AZ30" s="29"/>
-      <c r="BA30" s="29"/>
+      <c r="AT30" s="82"/>
+      <c r="AU30" s="96"/>
+      <c r="AV30" s="96"/>
+      <c r="AW30" s="96"/>
+      <c r="AX30" s="96"/>
+      <c r="AY30" s="96"/>
+      <c r="AZ30" s="90"/>
+      <c r="BA30" s="14"/>
       <c r="BB30" s="27"/>
       <c r="BC30" s="27"/>
       <c r="BD30" s="14"/>
@@ -4550,18 +4412,19 @@
     </row>
     <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E31" s="56">
+      <c r="B31" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="52" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D31" s="53">
+        <v>45606</v>
+      </c>
+      <c r="E31" s="53">
         <f>D31+4</f>
-        <v>44505</v>
+        <v>45610</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="14"/>
@@ -4604,13 +4467,13 @@
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="27"/>
-      <c r="AW31" s="29"/>
-      <c r="AX31" s="29"/>
-      <c r="AY31" s="29"/>
-      <c r="AZ31" s="29"/>
-      <c r="BA31" s="29"/>
+      <c r="AU31" s="98"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="92"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="90"/>
       <c r="BB31" s="27"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="14"/>
@@ -4644,18 +4507,19 @@
     </row>
     <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="56">
-        <v>44500</v>
-      </c>
-      <c r="E32" s="56">
-        <f>D32+2</f>
-        <v>44502</v>
+      <c r="B32" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="52" t="str">
+        <f>Q1</f>
+        <v>Péter Gergely</v>
+      </c>
+      <c r="D32" s="53">
+        <v>45607</v>
+      </c>
+      <c r="E32" s="53">
+        <f>D32+4</f>
+        <v>45611</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="14"/>
@@ -4699,13 +4563,13 @@
       <c r="AS32" s="14"/>
       <c r="AT32" s="14"/>
       <c r="AU32" s="27"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="14"/>
-      <c r="BB32" s="27"/>
+      <c r="AV32" s="98"/>
+      <c r="AW32" s="103"/>
+      <c r="AX32" s="103"/>
+      <c r="AY32" s="103"/>
+      <c r="AZ32" s="103"/>
+      <c r="BA32" s="103"/>
+      <c r="BB32" s="95"/>
       <c r="BC32" s="27"/>
       <c r="BD32" s="14"/>
       <c r="BE32" s="14"/>
@@ -4738,18 +4602,19 @@
     </row>
     <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E33" s="56">
-        <f>D33+3</f>
-        <v>44505</v>
+      <c r="B33" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="52" t="str">
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
+      </c>
+      <c r="D33" s="53">
+        <v>45608</v>
+      </c>
+      <c r="E33" s="53">
+        <f>D33+4</f>
+        <v>45612</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="14"/>
@@ -4794,15 +4659,15 @@
       <c r="AT33" s="14"/>
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="28"/>
-      <c r="BB33" s="27"/>
-      <c r="BC33" s="27"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="97"/>
+      <c r="AY33" s="97"/>
+      <c r="AZ33" s="97"/>
+      <c r="BA33" s="97"/>
+      <c r="BB33" s="97"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="80"/>
+      <c r="BE33" s="80"/>
       <c r="BF33" s="14"/>
       <c r="BG33" s="14"/>
       <c r="BH33" s="14"/>
@@ -4832,18 +4697,19 @@
     </row>
     <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="56">
-        <v>44502</v>
-      </c>
-      <c r="E34" s="56">
-        <f>D34+4</f>
-        <v>44506</v>
+      <c r="B34" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="52" t="str">
+        <f>Q1</f>
+        <v>Péter Gergely</v>
+      </c>
+      <c r="D34" s="53">
+        <v>45609</v>
+      </c>
+      <c r="E34" s="53">
+        <f>D34+6</f>
+        <v>45615</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="14"/>
@@ -4889,15 +4755,15 @@
       <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="14"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28"/>
-      <c r="BC34" s="27"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="88"/>
+      <c r="AZ34" s="88"/>
+      <c r="BA34" s="88"/>
+      <c r="BB34" s="88"/>
+      <c r="BC34" s="88"/>
+      <c r="BD34" s="88"/>
+      <c r="BE34" s="88"/>
+      <c r="BF34" s="79"/>
       <c r="BG34" s="14"/>
       <c r="BH34" s="14"/>
       <c r="BI34" s="27"/>
@@ -4926,18 +4792,19 @@
     </row>
     <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="56">
-        <v>44505</v>
-      </c>
-      <c r="E35" s="56">
-        <f>D35+2</f>
-        <v>44507</v>
+      <c r="B35" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="52" t="str">
+        <f>J1</f>
+        <v>Magyari Máté</v>
+      </c>
+      <c r="D35" s="53">
+        <v>45610</v>
+      </c>
+      <c r="E35" s="53">
+        <f>D35</f>
+        <v>45610</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
@@ -4984,13 +4851,13 @@
       <c r="AV35" s="27"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
+      <c r="AY35" s="82"/>
+      <c r="AZ35" s="85"/>
+      <c r="BA35" s="101"/>
+      <c r="BB35" s="78"/>
+      <c r="BC35" s="78"/>
+      <c r="BD35" s="77"/>
+      <c r="BE35" s="77"/>
       <c r="BF35" s="14"/>
       <c r="BG35" s="14"/>
       <c r="BH35" s="14"/>
@@ -5020,112 +4887,106 @@
     </row>
     <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="56">
-        <v>44501</v>
-      </c>
-      <c r="E36" s="56">
-        <f>D36+6</f>
-        <v>44507</v>
-      </c>
+      <c r="B36" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="27"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="14"/>
-      <c r="AU36" s="27"/>
-      <c r="AV36" s="27"/>
-      <c r="AW36" s="31"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
-      <c r="BC36" s="31"/>
-      <c r="BD36" s="14"/>
-      <c r="BE36" s="14"/>
-      <c r="BF36" s="14"/>
-      <c r="BG36" s="14"/>
-      <c r="BH36" s="14"/>
-      <c r="BI36" s="27"/>
-      <c r="BJ36" s="27"/>
-      <c r="BK36" s="14"/>
-      <c r="BL36" s="14"/>
-      <c r="BM36" s="14"/>
-      <c r="BN36" s="14"/>
-      <c r="BO36" s="14"/>
-      <c r="BP36" s="27"/>
-      <c r="BQ36" s="27"/>
-      <c r="BR36" s="14"/>
-      <c r="BS36" s="14"/>
-      <c r="BT36" s="14"/>
-      <c r="BU36" s="14"/>
-      <c r="BV36" s="14"/>
-      <c r="BW36" s="27"/>
-      <c r="BX36" s="27"/>
-      <c r="BY36" s="14"/>
-      <c r="BZ36" s="14"/>
-      <c r="CA36" s="14"/>
-      <c r="CB36" s="14"/>
-      <c r="CC36" s="14"/>
-      <c r="CD36" s="27"/>
-      <c r="CE36" s="27"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="84"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="87"/>
+      <c r="BF36" s="87"/>
+      <c r="BG36" s="87"/>
+      <c r="BH36" s="87"/>
+      <c r="BI36" s="87"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="22"/>
+      <c r="BM36" s="22"/>
+      <c r="BN36" s="22"/>
+      <c r="BO36" s="22"/>
+      <c r="BP36" s="22"/>
+      <c r="BQ36" s="22"/>
+      <c r="BR36" s="22"/>
+      <c r="BS36" s="22"/>
+      <c r="BT36" s="22"/>
+      <c r="BU36" s="22"/>
+      <c r="BV36" s="22"/>
+      <c r="BW36" s="22"/>
+      <c r="BX36" s="22"/>
+      <c r="BY36" s="22"/>
+      <c r="BZ36" s="22"/>
+      <c r="CA36" s="22"/>
+      <c r="CB36" s="22"/>
+      <c r="CC36" s="22"/>
+      <c r="CD36" s="22"/>
+      <c r="CE36" s="22"/>
     </row>
     <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="56">
-        <v>44507</v>
-      </c>
-      <c r="E37" s="56">
-        <f>D37+0</f>
-        <v>44507</v>
+      <c r="B37" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="59" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D37" s="60">
+        <v>45615</v>
+      </c>
+      <c r="E37" s="60">
+        <f>D37+4</f>
+        <v>45619</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="14"/>
@@ -5176,14 +5037,14 @@
       <c r="AZ37" s="14"/>
       <c r="BA37" s="14"/>
       <c r="BB37" s="27"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="14"/>
-      <c r="BE37" s="14"/>
-      <c r="BF37" s="14"/>
-      <c r="BG37" s="14"/>
-      <c r="BH37" s="14"/>
-      <c r="BI37" s="27"/>
-      <c r="BJ37" s="27"/>
+      <c r="BC37" s="27"/>
+      <c r="BD37" s="86"/>
+      <c r="BE37" s="92"/>
+      <c r="BF37" s="92"/>
+      <c r="BG37" s="92"/>
+      <c r="BH37" s="92"/>
+      <c r="BI37" s="92"/>
+      <c r="BJ37" s="95"/>
       <c r="BK37" s="14"/>
       <c r="BL37" s="14"/>
       <c r="BM37" s="14"/>
@@ -5198,7 +5059,7 @@
       <c r="BV37" s="14"/>
       <c r="BW37" s="27"/>
       <c r="BX37" s="27"/>
-      <c r="BY37" s="14"/>
+      <c r="BY37" s="27"/>
       <c r="BZ37" s="14"/>
       <c r="CA37" s="14"/>
       <c r="CB37" s="14"/>
@@ -5209,104 +5070,113 @@
     <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="17"/>
       <c r="B38" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="C38" s="59" t="str">
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
+      </c>
+      <c r="D38" s="60">
+        <v>45616</v>
+      </c>
+      <c r="E38" s="60">
+        <f t="shared" ref="E38:E39" si="23">D38+4</f>
+        <v>45620</v>
+      </c>
       <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="22"/>
-      <c r="AR38" s="22"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
-      <c r="AU38" s="22"/>
-      <c r="AV38" s="22"/>
-      <c r="AW38" s="22"/>
-      <c r="AX38" s="22"/>
-      <c r="AY38" s="22"/>
-      <c r="AZ38" s="22"/>
-      <c r="BA38" s="22"/>
-      <c r="BB38" s="22"/>
-      <c r="BC38" s="22"/>
-      <c r="BD38" s="22"/>
-      <c r="BE38" s="22"/>
-      <c r="BF38" s="22"/>
-      <c r="BG38" s="22"/>
-      <c r="BH38" s="22"/>
-      <c r="BI38" s="22"/>
-      <c r="BJ38" s="22"/>
-      <c r="BK38" s="22"/>
-      <c r="BL38" s="22"/>
-      <c r="BM38" s="22"/>
-      <c r="BN38" s="22"/>
-      <c r="BO38" s="22"/>
-      <c r="BP38" s="22"/>
-      <c r="BQ38" s="22"/>
-      <c r="BR38" s="22"/>
-      <c r="BS38" s="22"/>
-      <c r="BT38" s="22"/>
-      <c r="BU38" s="22"/>
-      <c r="BV38" s="22"/>
-      <c r="BW38" s="22"/>
-      <c r="BX38" s="22"/>
-      <c r="BY38" s="22"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="22"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="27"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="14"/>
+      <c r="AZ38" s="14"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="27"/>
+      <c r="BC38" s="27"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="82"/>
+      <c r="BF38" s="97"/>
+      <c r="BG38" s="97"/>
+      <c r="BH38" s="97"/>
+      <c r="BI38" s="97"/>
+      <c r="BJ38" s="97"/>
+      <c r="BK38" s="90"/>
+      <c r="BL38" s="14"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
+      <c r="BO38" s="14"/>
+      <c r="BP38" s="27"/>
+      <c r="BQ38" s="27"/>
+      <c r="BR38" s="14"/>
+      <c r="BS38" s="14"/>
+      <c r="BT38" s="14"/>
+      <c r="BU38" s="14"/>
+      <c r="BV38" s="14"/>
+      <c r="BW38" s="27"/>
+      <c r="BX38" s="27"/>
+      <c r="BY38" s="27"/>
+      <c r="BZ38" s="14"/>
+      <c r="CA38" s="14"/>
+      <c r="CB38" s="14"/>
+      <c r="CC38" s="14"/>
+      <c r="CD38" s="27"/>
+      <c r="CE38" s="27"/>
     </row>
     <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="63">
-        <v>44515</v>
-      </c>
-      <c r="E39" s="63">
-        <f>D39+4</f>
-        <v>44519</v>
+      <c r="B39" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="59" t="str">
+        <f>Q1</f>
+        <v>Péter Gergely</v>
+      </c>
+      <c r="D39" s="60">
+        <v>45617</v>
+      </c>
+      <c r="E39" s="60">
+        <f t="shared" si="23"/>
+        <v>45621</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="14"/>
@@ -5360,16 +5230,16 @@
       <c r="BC39" s="27"/>
       <c r="BD39" s="14"/>
       <c r="BE39" s="14"/>
-      <c r="BF39" s="14"/>
-      <c r="BG39" s="14"/>
-      <c r="BH39" s="14"/>
-      <c r="BI39" s="27"/>
-      <c r="BJ39" s="27"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-      <c r="BM39" s="36"/>
-      <c r="BN39" s="36"/>
-      <c r="BO39" s="36"/>
+      <c r="BF39" s="82"/>
+      <c r="BG39" s="88"/>
+      <c r="BH39" s="88"/>
+      <c r="BI39" s="88"/>
+      <c r="BJ39" s="88"/>
+      <c r="BK39" s="88"/>
+      <c r="BL39" s="79"/>
+      <c r="BM39" s="14"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="14"/>
       <c r="BP39" s="27"/>
       <c r="BQ39" s="27"/>
       <c r="BR39" s="14"/>
@@ -5389,18 +5259,19 @@
     </row>
     <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="63">
-        <v>44515</v>
-      </c>
-      <c r="E40" s="63">
-        <f t="shared" ref="E40:E41" si="23">D40+4</f>
-        <v>44519</v>
+      <c r="B40" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="59" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D40" s="60">
+        <v>45618</v>
+      </c>
+      <c r="E40" s="60">
+        <f>D40</f>
+        <v>45618</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="14"/>
@@ -5455,15 +5326,15 @@
       <c r="BD40" s="14"/>
       <c r="BE40" s="14"/>
       <c r="BF40" s="14"/>
-      <c r="BG40" s="14"/>
-      <c r="BH40" s="14"/>
-      <c r="BI40" s="27"/>
-      <c r="BJ40" s="27"/>
-      <c r="BK40" s="38"/>
-      <c r="BL40" s="38"/>
-      <c r="BM40" s="38"/>
-      <c r="BN40" s="38"/>
-      <c r="BO40" s="38"/>
+      <c r="BG40" s="82"/>
+      <c r="BH40" s="92"/>
+      <c r="BI40" s="83"/>
+      <c r="BJ40" s="78"/>
+      <c r="BK40" s="77"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
       <c r="BP40" s="27"/>
       <c r="BQ40" s="27"/>
       <c r="BR40" s="14"/>
@@ -5483,18 +5354,19 @@
     </row>
     <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="63">
-        <v>44515</v>
-      </c>
-      <c r="E41" s="63">
-        <f t="shared" si="23"/>
-        <v>44519</v>
+      <c r="B41" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="59" t="str">
+        <f>J1</f>
+        <v>Magyari Máté</v>
+      </c>
+      <c r="D41" s="60">
+        <v>45619</v>
+      </c>
+      <c r="E41" s="60">
+        <f t="shared" ref="E41:E45" si="24">D41</f>
+        <v>45619</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="14"/>
@@ -5550,14 +5422,14 @@
       <c r="BE41" s="14"/>
       <c r="BF41" s="14"/>
       <c r="BG41" s="14"/>
-      <c r="BH41" s="14"/>
-      <c r="BI41" s="27"/>
-      <c r="BJ41" s="27"/>
-      <c r="BK41" s="37"/>
-      <c r="BL41" s="37"/>
-      <c r="BM41" s="37"/>
-      <c r="BN41" s="37"/>
-      <c r="BO41" s="37"/>
+      <c r="BH41" s="77"/>
+      <c r="BI41" s="104"/>
+      <c r="BJ41" s="91"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="14"/>
       <c r="BP41" s="27"/>
       <c r="BQ41" s="27"/>
       <c r="BR41" s="14"/>
@@ -5577,17 +5449,19 @@
     </row>
     <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="63">
-        <v>44522</v>
-      </c>
-      <c r="E42" s="63">
-        <v>44522</v>
+      <c r="B42" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="59" t="str">
+        <f>Q1</f>
+        <v>Péter Gergely</v>
+      </c>
+      <c r="D42" s="60">
+        <v>45620</v>
+      </c>
+      <c r="E42" s="60">
+        <f t="shared" si="24"/>
+        <v>45620</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="14"/>
@@ -5644,16 +5518,16 @@
       <c r="BF42" s="14"/>
       <c r="BG42" s="14"/>
       <c r="BH42" s="14"/>
-      <c r="BI42" s="27"/>
-      <c r="BJ42" s="27"/>
-      <c r="BK42" s="14"/>
+      <c r="BI42" s="99"/>
+      <c r="BJ42" s="88"/>
+      <c r="BK42" s="79"/>
       <c r="BL42" s="14"/>
       <c r="BM42" s="14"/>
       <c r="BN42" s="14"/>
       <c r="BO42" s="14"/>
       <c r="BP42" s="27"/>
       <c r="BQ42" s="27"/>
-      <c r="BR42" s="36"/>
+      <c r="BR42" s="14"/>
       <c r="BS42" s="14"/>
       <c r="BT42" s="14"/>
       <c r="BU42" s="14"/>
@@ -5670,17 +5544,19 @@
     </row>
     <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="17"/>
-      <c r="B43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="63">
-        <v>44522</v>
-      </c>
-      <c r="E43" s="63">
-        <v>44522</v>
+      <c r="B43" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="59" t="str">
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
+      </c>
+      <c r="D43" s="60">
+        <v>45621</v>
+      </c>
+      <c r="E43" s="60">
+        <f t="shared" si="24"/>
+        <v>45621</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
@@ -5738,15 +5614,15 @@
       <c r="BG43" s="14"/>
       <c r="BH43" s="14"/>
       <c r="BI43" s="27"/>
-      <c r="BJ43" s="27"/>
-      <c r="BK43" s="14"/>
+      <c r="BJ43" s="78"/>
+      <c r="BK43" s="69"/>
       <c r="BL43" s="14"/>
       <c r="BM43" s="14"/>
       <c r="BN43" s="14"/>
       <c r="BO43" s="14"/>
       <c r="BP43" s="27"/>
       <c r="BQ43" s="27"/>
-      <c r="BR43" s="37"/>
+      <c r="BR43" s="14"/>
       <c r="BS43" s="14"/>
       <c r="BT43" s="14"/>
       <c r="BU43" s="14"/>
@@ -5763,17 +5639,19 @@
     </row>
     <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="63">
-        <v>44523</v>
-      </c>
-      <c r="E44" s="63">
-        <v>44523</v>
+      <c r="B44" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="59" t="str">
+        <f>Y1</f>
+        <v>Pernyész Bettina</v>
+      </c>
+      <c r="D44" s="60">
+        <v>45622</v>
+      </c>
+      <c r="E44" s="60">
+        <f t="shared" si="24"/>
+        <v>45622</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="14"/>
@@ -5833,14 +5711,14 @@
       <c r="BI44" s="27"/>
       <c r="BJ44" s="27"/>
       <c r="BK44" s="14"/>
-      <c r="BL44" s="14"/>
+      <c r="BL44" s="94"/>
       <c r="BM44" s="14"/>
       <c r="BN44" s="14"/>
       <c r="BO44" s="14"/>
       <c r="BP44" s="27"/>
       <c r="BQ44" s="27"/>
       <c r="BR44" s="14"/>
-      <c r="BS44" s="36"/>
+      <c r="BS44" s="14"/>
       <c r="BT44" s="14"/>
       <c r="BU44" s="14"/>
       <c r="BV44" s="14"/>
@@ -5856,17 +5734,19 @@
     </row>
     <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="63">
-        <v>44525</v>
-      </c>
-      <c r="E45" s="63">
-        <v>44525</v>
+      <c r="B45" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="59" t="str">
+        <f>AS1</f>
+        <v>Fekete Kristóf</v>
+      </c>
+      <c r="D45" s="60">
+        <v>45623</v>
+      </c>
+      <c r="E45" s="60">
+        <f t="shared" si="24"/>
+        <v>45623</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="14"/>
@@ -5927,7 +5807,7 @@
       <c r="BJ45" s="27"/>
       <c r="BK45" s="14"/>
       <c r="BL45" s="14"/>
-      <c r="BM45" s="14"/>
+      <c r="BM45" s="70"/>
       <c r="BN45" s="14"/>
       <c r="BO45" s="14"/>
       <c r="BP45" s="27"/>
@@ -5935,7 +5815,7 @@
       <c r="BR45" s="14"/>
       <c r="BS45" s="14"/>
       <c r="BT45" s="14"/>
-      <c r="BU45" s="37"/>
+      <c r="BU45" s="14"/>
       <c r="BV45" s="14"/>
       <c r="BW45" s="27"/>
       <c r="BX45" s="27"/>
@@ -5950,569 +5830,107 @@
     <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="17"/>
       <c r="B46" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E46" s="63">
-        <v>44524</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="27"/>
-      <c r="AV46" s="27"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14"/>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="27"/>
-      <c r="BC46" s="27"/>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14"/>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="27"/>
-      <c r="BJ46" s="27"/>
-      <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="14"/>
-      <c r="BN46" s="14"/>
-      <c r="BO46" s="14"/>
-      <c r="BP46" s="27"/>
-      <c r="BQ46" s="27"/>
-      <c r="BR46" s="14"/>
-      <c r="BS46" s="14"/>
-      <c r="BT46" s="36"/>
-      <c r="BU46" s="14"/>
-      <c r="BV46" s="14"/>
-      <c r="BW46" s="27"/>
-      <c r="BX46" s="27"/>
-      <c r="BY46" s="27"/>
-      <c r="BZ46" s="14"/>
-      <c r="CA46" s="14"/>
-      <c r="CB46" s="14"/>
-      <c r="CC46" s="14"/>
-      <c r="CD46" s="27"/>
-      <c r="CE46" s="27"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22"/>
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="22"/>
+      <c r="BB46" s="22"/>
+      <c r="BC46" s="22"/>
+      <c r="BD46" s="22"/>
+      <c r="BE46" s="22"/>
+      <c r="BF46" s="22"/>
+      <c r="BG46" s="22"/>
+      <c r="BH46" s="22"/>
+      <c r="BI46" s="22"/>
+      <c r="BJ46" s="22"/>
+      <c r="BK46" s="22"/>
+      <c r="BL46" s="22"/>
+      <c r="BM46" s="22"/>
+      <c r="BN46" s="22"/>
+      <c r="BO46" s="22"/>
+      <c r="BP46" s="22"/>
+      <c r="BQ46" s="22"/>
+      <c r="BR46" s="22"/>
+      <c r="BS46" s="22"/>
+      <c r="BT46" s="22"/>
+      <c r="BU46" s="22"/>
+      <c r="BV46" s="22"/>
+      <c r="BW46" s="22"/>
+      <c r="BX46" s="22"/>
+      <c r="BY46" s="22"/>
+      <c r="BZ46" s="22"/>
+      <c r="CA46" s="22"/>
+      <c r="CB46" s="22"/>
+      <c r="CC46" s="22"/>
+      <c r="CD46" s="22"/>
+      <c r="CE46" s="22"/>
     </row>
-    <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E47" s="63">
-        <v>44524</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="14"/>
-      <c r="AK47" s="14"/>
-      <c r="AL47" s="14"/>
-      <c r="AM47" s="14"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="14"/>
-      <c r="AQ47" s="14"/>
-      <c r="AR47" s="14"/>
-      <c r="AS47" s="14"/>
-      <c r="AT47" s="14"/>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="14"/>
-      <c r="AX47" s="14"/>
-      <c r="AY47" s="14"/>
-      <c r="AZ47" s="14"/>
-      <c r="BA47" s="14"/>
-      <c r="BB47" s="27"/>
-      <c r="BC47" s="27"/>
-      <c r="BD47" s="14"/>
-      <c r="BE47" s="14"/>
-      <c r="BF47" s="14"/>
-      <c r="BG47" s="14"/>
-      <c r="BH47" s="14"/>
-      <c r="BI47" s="27"/>
-      <c r="BJ47" s="27"/>
-      <c r="BK47" s="14"/>
-      <c r="BL47" s="14"/>
-      <c r="BM47" s="14"/>
-      <c r="BN47" s="14"/>
-      <c r="BO47" s="14"/>
-      <c r="BP47" s="27"/>
-      <c r="BQ47" s="27"/>
-      <c r="BR47" s="14"/>
-      <c r="BS47" s="14"/>
-      <c r="BT47" s="37"/>
-      <c r="BU47" s="14"/>
-      <c r="BV47" s="14"/>
-      <c r="BW47" s="27"/>
-      <c r="BX47" s="27"/>
-      <c r="BY47" s="27"/>
-      <c r="BZ47" s="14"/>
-      <c r="CA47" s="14"/>
-      <c r="CB47" s="14"/>
-      <c r="CC47" s="14"/>
-      <c r="CD47" s="27"/>
-      <c r="CE47" s="27"/>
+    <row r="47" spans="1:83" ht="30" customHeight="1">
+      <c r="C47" s="64"/>
     </row>
-    <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="63">
-        <v>44523</v>
-      </c>
-      <c r="E48" s="63">
-        <v>44523</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="27"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
-      <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="14"/>
-      <c r="AQ48" s="14"/>
-      <c r="AR48" s="14"/>
-      <c r="AS48" s="14"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="27"/>
-      <c r="AV48" s="27"/>
-      <c r="AW48" s="14"/>
-      <c r="AX48" s="14"/>
-      <c r="AY48" s="14"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="14"/>
-      <c r="BB48" s="27"/>
-      <c r="BC48" s="27"/>
-      <c r="BD48" s="14"/>
-      <c r="BE48" s="14"/>
-      <c r="BF48" s="14"/>
-      <c r="BG48" s="14"/>
-      <c r="BH48" s="14"/>
-      <c r="BI48" s="27"/>
-      <c r="BJ48" s="27"/>
-      <c r="BK48" s="14"/>
-      <c r="BL48" s="14"/>
-      <c r="BM48" s="14"/>
-      <c r="BN48" s="14"/>
-      <c r="BO48" s="14"/>
-      <c r="BP48" s="27"/>
-      <c r="BQ48" s="27"/>
-      <c r="BR48" s="14"/>
-      <c r="BS48" s="38"/>
-      <c r="BT48" s="14"/>
-      <c r="BU48" s="14"/>
-      <c r="BV48" s="14"/>
-      <c r="BW48" s="27"/>
-      <c r="BX48" s="27"/>
-      <c r="BY48" s="27"/>
-      <c r="BZ48" s="14"/>
-      <c r="CA48" s="14"/>
-      <c r="CB48" s="14"/>
-      <c r="CC48" s="14"/>
-      <c r="CD48" s="27"/>
-      <c r="CE48" s="27"/>
+    <row r="48" spans="1:83" ht="30" customHeight="1">
+      <c r="C48" s="8"/>
+      <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E49" s="63">
-        <v>44524</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="27"/>
-      <c r="AV49" s="27"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="27"/>
-      <c r="BC49" s="27"/>
-      <c r="BD49" s="14"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="14"/>
-      <c r="BG49" s="14"/>
-      <c r="BH49" s="14"/>
-      <c r="BI49" s="27"/>
-      <c r="BJ49" s="27"/>
-      <c r="BK49" s="14"/>
-      <c r="BL49" s="14"/>
-      <c r="BM49" s="14"/>
-      <c r="BN49" s="14"/>
-      <c r="BO49" s="14"/>
-      <c r="BP49" s="27"/>
-      <c r="BQ49" s="27"/>
-      <c r="BR49" s="14"/>
-      <c r="BS49" s="14"/>
-      <c r="BT49" s="38"/>
-      <c r="BU49" s="14"/>
-      <c r="BV49" s="14"/>
-      <c r="BW49" s="27"/>
-      <c r="BX49" s="27"/>
-      <c r="BY49" s="27"/>
-      <c r="BZ49" s="14"/>
-      <c r="CA49" s="14"/>
-      <c r="CB49" s="14"/>
-      <c r="CC49" s="14"/>
-      <c r="CD49" s="27"/>
-      <c r="CE49" s="27"/>
-    </row>
-    <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="63">
-        <v>44525</v>
-      </c>
-      <c r="E50" s="63">
-        <v>44525</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-      <c r="AK50" s="14"/>
-      <c r="AL50" s="14"/>
-      <c r="AM50" s="14"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="14"/>
-      <c r="AQ50" s="14"/>
-      <c r="AR50" s="14"/>
-      <c r="AS50" s="14"/>
-      <c r="AT50" s="14"/>
-      <c r="AU50" s="27"/>
-      <c r="AV50" s="27"/>
-      <c r="AW50" s="14"/>
-      <c r="AX50" s="14"/>
-      <c r="AY50" s="14"/>
-      <c r="AZ50" s="14"/>
-      <c r="BA50" s="14"/>
-      <c r="BB50" s="27"/>
-      <c r="BC50" s="27"/>
-      <c r="BD50" s="14"/>
-      <c r="BE50" s="14"/>
-      <c r="BF50" s="14"/>
-      <c r="BG50" s="14"/>
-      <c r="BH50" s="14"/>
-      <c r="BI50" s="27"/>
-      <c r="BJ50" s="27"/>
-      <c r="BK50" s="14"/>
-      <c r="BL50" s="14"/>
-      <c r="BM50" s="14"/>
-      <c r="BN50" s="14"/>
-      <c r="BO50" s="14"/>
-      <c r="BP50" s="27"/>
-      <c r="BQ50" s="27"/>
-      <c r="BR50" s="14"/>
-      <c r="BS50" s="14"/>
-      <c r="BT50" s="14"/>
-      <c r="BU50" s="38"/>
-      <c r="BV50" s="14"/>
-      <c r="BW50" s="27"/>
-      <c r="BX50" s="27"/>
-      <c r="BY50" s="27"/>
-      <c r="BZ50" s="14"/>
-      <c r="CA50" s="14"/>
-      <c r="CB50" s="14"/>
-      <c r="CC50" s="14"/>
-      <c r="CD50" s="27"/>
-      <c r="CE50" s="27"/>
-    </row>
-    <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
-      <c r="AR51" s="22"/>
-      <c r="AS51" s="22"/>
-      <c r="AT51" s="22"/>
-      <c r="AU51" s="22"/>
-      <c r="AV51" s="22"/>
-      <c r="AW51" s="22"/>
-      <c r="AX51" s="22"/>
-      <c r="AY51" s="22"/>
-      <c r="AZ51" s="22"/>
-      <c r="BA51" s="22"/>
-      <c r="BB51" s="22"/>
-      <c r="BC51" s="22"/>
-      <c r="BD51" s="22"/>
-      <c r="BE51" s="22"/>
-      <c r="BF51" s="22"/>
-      <c r="BG51" s="22"/>
-      <c r="BH51" s="22"/>
-      <c r="BI51" s="22"/>
-      <c r="BJ51" s="22"/>
-      <c r="BK51" s="22"/>
-      <c r="BL51" s="22"/>
-      <c r="BM51" s="22"/>
-      <c r="BN51" s="22"/>
-      <c r="BO51" s="22"/>
-      <c r="BP51" s="22"/>
-      <c r="BQ51" s="22"/>
-      <c r="BR51" s="22"/>
-      <c r="BS51" s="22"/>
-      <c r="BT51" s="22"/>
-      <c r="BU51" s="22"/>
-      <c r="BV51" s="22"/>
-      <c r="BW51" s="22"/>
-      <c r="BX51" s="22"/>
-      <c r="BY51" s="22"/>
-      <c r="BZ51" s="22"/>
-      <c r="CA51" s="22"/>
-      <c r="CB51" s="22"/>
-      <c r="CC51" s="22"/>
-      <c r="CD51" s="22"/>
-      <c r="CE51" s="22"/>
-    </row>
-    <row r="52" spans="1:83" ht="30" customHeight="1">
-      <c r="C52" s="73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:83" ht="30" customHeight="1">
-      <c r="C53" s="8"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:83" ht="30" customHeight="1">
-      <c r="C54" s="9"/>
+    <row r="49" spans="3:3" ht="30" customHeight="1">
+      <c r="C49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -6522,169 +5940,7 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:R51 AN30:AT51 AW37:BA51 U39:AM51 BY39:CC51 BD51:BX51">
-    <cfRule type="expression" dxfId="40" priority="4">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 G7:R7 AG7:AH38 S7:T51 CD7:CE51 G8:L8 Q8:R8 G9:P9 Y11 U11:U12 AE13:AF13 U13:Y14 AF14 U15:V15 AB15:AF15 AC16:AF16 AB17:AE17 AS19:AT19 AI20:AJ20 AP20:AT21 AI21 AM21 AP22:AR22 AP23:AT23 AZ23:BA23 AT24 AW24:BA26 AP25:AR25 AP26 AP27:AR27 AX27:BA27 AW28:BA29 AR29:AT29 AW30 AY32:BA32 AW33:AW34 AW35:AZ35 BD39:BJ41 BP39:BX41 BD42:BQ43 BS42:BX43 BD44:BR44 BT44:BX44 BD45:BT45 BV45:BX45 BD46:BS47 BU46:BX47 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BD50:BT50 BV50:BX50">
-    <cfRule type="expression" dxfId="37" priority="143">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 G7:R7 AG7:AH38 S7:T51 CD7:CE51 G8:L8 Q8:R8 G9:P9 Y11 U11:U12 AE13:AF13 U13:Y14 AF14 U15:V15 AB15:AF15 AC16:AF16 AB17:AE17 AS19:AT19 AI20:AJ20 AP20:AT21 AI21 AM21 AP22:AR22 AP23:AT23 AZ23:BA23 AT24 AW24:BA26 AP25:AR25 AP26 AP27:AR27 AX27:BA27 AW28:BA29 AR29:AT29 AW30 AY32:BA32 AW33:AW34 AW35:AZ35 BD39:BJ41 BP39:BX41 BD42:BQ43 BS42:BX43 BD44:BR44 BT44:BX44 BD45:BT45 BV45:BX45 BD46:BS47 BU46:BX47 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BD50:BT50 BV50:BX50">
-    <cfRule type="expression" dxfId="36" priority="138" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:CE6 G7:R7 AG7:AH38 S7:T51 CD7:CE51 G8:L8 Q8:R8 G9:P9 Y11 U11:U12 AE13:AF13 U13:Y14 AF14 U15:V15 AB15:AF15 AC16:AF16 AB17:AE17 AS19:AT19 AI20:AJ20 AP20:AT21 AI21 AM21 AP22:AR22 AP23:AT23 AZ23:BA23 AT24 AW24:BA26 AP25:AR25 AP26 AP27:AR27 AX27:BA27 AW28:BA29 AR29:AT29 AW30 AY32:BA32 AW33:AW34 AW35:AZ35 BD39:BJ41 BP39:BX41 BD42:BQ43 BS42:BX43 BD44:BR44 BT44:BX44 BD45:BT45 BV45:BX45 BD46:BS47 BU46:BX47 BD48:BR48 BT48:BX48 BD49:BS49 BU49:BX49 BD50:BT50 BV50:BX50">
-    <cfRule type="expression" dxfId="35" priority="137">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y10 AB7:AF12">
-    <cfRule type="expression" dxfId="34" priority="92">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="93" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="94">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA15">
-    <cfRule type="expression" dxfId="31" priority="51" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="50">
-      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="52">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AA37">
-    <cfRule type="expression" dxfId="28" priority="16">
-      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AF38 AI22:AM38 U38:AA38">
-    <cfRule type="expression" dxfId="25" priority="76">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="75" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="74">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AM19">
-    <cfRule type="expression" dxfId="22" priority="80">
-      <formula>AND(task_start&lt;=AI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="81" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AI$5,task_start&lt;AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="82">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT18 AO20 AN21:AO28 AN29">
-    <cfRule type="expression" dxfId="19" priority="45" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="46">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="44">
-      <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU23:AV24 AT26:AV26 AU28:AV31 AU32">
-    <cfRule type="expression" dxfId="16" priority="43">
-      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="41">
-      <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="42" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU33:AV51">
-    <cfRule type="expression" dxfId="13" priority="10">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:BC21 BC22 BB23:BC33 BC34 BB37">
-    <cfRule type="expression" dxfId="10" priority="40">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="39" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="38">
-      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB38:BC51">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD7:CC38 U16:Y37">
-    <cfRule type="expression" dxfId="4" priority="68">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="69" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="1" priority="149" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="0" priority="145">
-      <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Gantt-chart.xlsx
+++ b/Gantt-chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFD8F4-3DA5-44AC-9D24-5AC78F7F5ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072ABC2-EA10-4A6A-AA6A-71D4EF606FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -30,9 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -969,107 +969,107 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1086,14 +1086,7 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <border>
         <left style="thin">
@@ -1190,15 +1183,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="firstColumn" dxfId="6"/>
-      <tableStyleElement type="lastColumn" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1559,9 +1552,9 @@
   </sheetPr>
   <dimension ref="A1:CE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI32" sqref="AI32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1620,135 +1613,135 @@
       <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="71">
+      <c r="D3" s="102">
         <v>45565</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="72">
+      <c r="F4" s="103"/>
+      <c r="G4" s="99">
         <f>G5</f>
         <v>45565</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="72">
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="99">
         <f>N5</f>
         <v>45572</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="72">
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="99">
         <f>U5</f>
         <v>45579</v>
       </c>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="72">
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="99">
         <f>AB5</f>
         <v>45586</v>
       </c>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="72">
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="99">
         <f>AI5</f>
         <v>45593</v>
       </c>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="72">
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="99">
         <f>AP5</f>
         <v>45600</v>
       </c>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="72">
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="99">
         <f>AW5</f>
         <v>45607</v>
       </c>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="72">
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="100"/>
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="99">
         <f>BD5</f>
         <v>45614</v>
       </c>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="72">
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="100"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="99">
         <f>BK5</f>
         <v>45621</v>
       </c>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="73"/>
-      <c r="BO4" s="73"/>
-      <c r="BP4" s="73"/>
-      <c r="BQ4" s="74"/>
-      <c r="BR4" s="72">
+      <c r="BL4" s="100"/>
+      <c r="BM4" s="100"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="100"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="99">
         <f>BR5</f>
         <v>45628</v>
       </c>
-      <c r="BS4" s="73"/>
-      <c r="BT4" s="73"/>
-      <c r="BU4" s="73"/>
-      <c r="BV4" s="73"/>
-      <c r="BW4" s="73"/>
-      <c r="BX4" s="74"/>
-      <c r="BY4" s="72">
+      <c r="BS4" s="100"/>
+      <c r="BT4" s="100"/>
+      <c r="BU4" s="100"/>
+      <c r="BV4" s="100"/>
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="99">
         <f>BY5</f>
         <v>45635</v>
       </c>
-      <c r="BZ4" s="73"/>
-      <c r="CA4" s="73"/>
-      <c r="CB4" s="73"/>
-      <c r="CC4" s="73"/>
-      <c r="CD4" s="73"/>
-      <c r="CE4" s="74"/>
+      <c r="BZ4" s="100"/>
+      <c r="CA4" s="100"/>
+      <c r="CB4" s="100"/>
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="101"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -1764,7 +1757,7 @@
       <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45565</v>
@@ -1774,7 +1767,7 @@
         <v>45566</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="G5:AV5" si="0">H5+1</f>
+        <f t="shared" ref="I5:AV5" si="0">H5+1</f>
         <v>45567</v>
       </c>
       <c r="J5" s="5">
@@ -2165,20 +2158,20 @@
       <c r="D7" s="38"/>
       <c r="E7" s="10"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
@@ -2259,21 +2252,21 @@
         <v>45578</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="79"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
@@ -2353,20 +2346,20 @@
         <v>45570</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -2444,8 +2437,8 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -2455,9 +2448,9 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
@@ -2548,12 +2541,12 @@
       <c r="R11" s="14"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="85"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -2643,12 +2636,12 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="89"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="83"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
@@ -2739,12 +2732,12 @@
       <c r="T13" s="27"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="80"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="74"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
@@ -2835,12 +2828,12 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="79"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="73"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
@@ -2931,11 +2924,11 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="90"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="84"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
@@ -3027,11 +3020,11 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="79"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="73"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
       <c r="AG16" s="27"/>
@@ -3123,9 +3116,9 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="27"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="77"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="71"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
@@ -3218,12 +3211,12 @@
       <c r="AF18" s="29"/>
       <c r="AG18" s="29"/>
       <c r="AH18" s="29"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="100"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
       <c r="AO18" s="29"/>
       <c r="AP18" s="29"/>
       <c r="AQ18" s="29"/>
@@ -3316,12 +3309,12 @@
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
       <c r="AI19" s="14"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="89"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="83"/>
       <c r="AP19" s="14"/>
       <c r="AQ19" s="14"/>
       <c r="AR19" s="14"/>
@@ -3411,12 +3404,12 @@
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
       <c r="AI20" s="14"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="92"/>
-      <c r="AO20" s="89"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="83"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
@@ -3507,18 +3500,18 @@
       <c r="AH21" s="27"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="80"/>
-      <c r="AQ21" s="80"/>
-      <c r="AR21" s="80"/>
-      <c r="AS21" s="80"/>
-      <c r="AT21" s="80"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="89"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
       <c r="AW21" s="14"/>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
@@ -3603,18 +3596,18 @@
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="79"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="73"/>
       <c r="AX22" s="14"/>
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
@@ -3699,16 +3692,16 @@
       <c r="AJ23" s="14"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="88"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="102"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="96"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
       <c r="AW23" s="14"/>
       <c r="AX23" s="14"/>
       <c r="AY23" s="14"/>
@@ -3795,12 +3788,12 @@
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="14"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="80"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="86"/>
+      <c r="AP24" s="86"/>
+      <c r="AQ24" s="86"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="74"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="27"/>
       <c r="AV24" s="27"/>
@@ -3891,12 +3884,12 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="27"/>
-      <c r="AO25" s="98"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="96"/>
-      <c r="AT25" s="79"/>
+      <c r="AO25" s="92"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="73"/>
       <c r="AU25" s="27"/>
       <c r="AV25" s="27"/>
       <c r="AW25" s="14"/>
@@ -3987,12 +3980,12 @@
       <c r="AM26" s="14"/>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="91"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="85"/>
       <c r="AV26" s="27"/>
       <c r="AW26" s="14"/>
       <c r="AX26" s="14"/>
@@ -4083,13 +4076,13 @@
       <c r="AN27" s="27"/>
       <c r="AO27" s="27"/>
       <c r="AP27" s="14"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="97"/>
-      <c r="AS27" s="97"/>
-      <c r="AT27" s="97"/>
-      <c r="AU27" s="97"/>
-      <c r="AV27" s="95"/>
-      <c r="AW27" s="80"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="74"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
@@ -4179,13 +4172,13 @@
       <c r="AO28" s="27"/>
       <c r="AP28" s="14"/>
       <c r="AQ28" s="14"/>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="96"/>
-      <c r="AT28" s="96"/>
-      <c r="AU28" s="96"/>
-      <c r="AV28" s="96"/>
-      <c r="AW28" s="96"/>
-      <c r="AX28" s="79"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="73"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
       <c r="BA28" s="14"/>
@@ -4275,13 +4268,13 @@
       <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="97"/>
-      <c r="AU29" s="97"/>
-      <c r="AV29" s="97"/>
-      <c r="AW29" s="97"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="80"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="74"/>
       <c r="AZ29" s="14"/>
       <c r="BA29" s="14"/>
       <c r="BB29" s="27"/>
@@ -4371,13 +4364,13 @@
       <c r="AQ30" s="14"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="96"/>
-      <c r="AV30" s="96"/>
-      <c r="AW30" s="96"/>
-      <c r="AX30" s="96"/>
-      <c r="AY30" s="96"/>
-      <c r="AZ30" s="90"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="90"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="90"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="90"/>
+      <c r="AZ30" s="84"/>
       <c r="BA30" s="14"/>
       <c r="BB30" s="27"/>
       <c r="BC30" s="27"/>
@@ -4467,13 +4460,13 @@
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
-      <c r="AU31" s="98"/>
-      <c r="AV31" s="92"/>
-      <c r="AW31" s="92"/>
-      <c r="AX31" s="92"/>
-      <c r="AY31" s="92"/>
-      <c r="AZ31" s="92"/>
-      <c r="BA31" s="90"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="86"/>
+      <c r="AX31" s="86"/>
+      <c r="AY31" s="86"/>
+      <c r="AZ31" s="86"/>
+      <c r="BA31" s="84"/>
       <c r="BB31" s="27"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="14"/>
@@ -4563,13 +4556,13 @@
       <c r="AS32" s="14"/>
       <c r="AT32" s="14"/>
       <c r="AU32" s="27"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="103"/>
-      <c r="AX32" s="103"/>
-      <c r="AY32" s="103"/>
-      <c r="AZ32" s="103"/>
-      <c r="BA32" s="103"/>
-      <c r="BB32" s="95"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="97"/>
+      <c r="AX32" s="97"/>
+      <c r="AY32" s="97"/>
+      <c r="AZ32" s="97"/>
+      <c r="BA32" s="97"/>
+      <c r="BB32" s="89"/>
       <c r="BC32" s="27"/>
       <c r="BD32" s="14"/>
       <c r="BE32" s="14"/>
@@ -4659,15 +4652,15 @@
       <c r="AT33" s="14"/>
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
-      <c r="AW33" s="82"/>
-      <c r="AX33" s="97"/>
-      <c r="AY33" s="97"/>
-      <c r="AZ33" s="97"/>
-      <c r="BA33" s="97"/>
-      <c r="BB33" s="97"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="80"/>
-      <c r="BE33" s="80"/>
+      <c r="AW33" s="76"/>
+      <c r="AX33" s="91"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
+      <c r="BC33" s="89"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="74"/>
       <c r="BF33" s="14"/>
       <c r="BG33" s="14"/>
       <c r="BH33" s="14"/>
@@ -4755,15 +4748,15 @@
       <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="14"/>
-      <c r="AX34" s="82"/>
-      <c r="AY34" s="88"/>
-      <c r="AZ34" s="88"/>
-      <c r="BA34" s="88"/>
-      <c r="BB34" s="88"/>
-      <c r="BC34" s="88"/>
-      <c r="BD34" s="88"/>
-      <c r="BE34" s="88"/>
-      <c r="BF34" s="79"/>
+      <c r="AX34" s="76"/>
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="82"/>
+      <c r="BA34" s="82"/>
+      <c r="BB34" s="82"/>
+      <c r="BC34" s="82"/>
+      <c r="BD34" s="82"/>
+      <c r="BE34" s="82"/>
+      <c r="BF34" s="73"/>
       <c r="BG34" s="14"/>
       <c r="BH34" s="14"/>
       <c r="BI34" s="27"/>
@@ -4851,13 +4844,13 @@
       <c r="AV35" s="27"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14"/>
-      <c r="AY35" s="82"/>
-      <c r="AZ35" s="85"/>
-      <c r="BA35" s="101"/>
-      <c r="BB35" s="78"/>
-      <c r="BC35" s="78"/>
-      <c r="BD35" s="77"/>
-      <c r="BE35" s="77"/>
+      <c r="AY35" s="76"/>
+      <c r="AZ35" s="79"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="72"/>
+      <c r="BC35" s="72"/>
+      <c r="BD35" s="71"/>
+      <c r="BE35" s="71"/>
       <c r="BF35" s="14"/>
       <c r="BG35" s="14"/>
       <c r="BH35" s="14"/>
@@ -4939,16 +4932,16 @@
       <c r="AW36" s="22"/>
       <c r="AX36" s="22"/>
       <c r="AY36" s="22"/>
-      <c r="AZ36" s="84"/>
+      <c r="AZ36" s="78"/>
       <c r="BA36" s="22"/>
       <c r="BB36" s="22"/>
       <c r="BC36" s="22"/>
       <c r="BD36" s="22"/>
-      <c r="BE36" s="87"/>
-      <c r="BF36" s="87"/>
-      <c r="BG36" s="87"/>
-      <c r="BH36" s="87"/>
-      <c r="BI36" s="87"/>
+      <c r="BE36" s="81"/>
+      <c r="BF36" s="81"/>
+      <c r="BG36" s="81"/>
+      <c r="BH36" s="81"/>
+      <c r="BI36" s="81"/>
       <c r="BJ36" s="22"/>
       <c r="BK36" s="22"/>
       <c r="BL36" s="22"/>
@@ -5038,13 +5031,13 @@
       <c r="BA37" s="14"/>
       <c r="BB37" s="27"/>
       <c r="BC37" s="27"/>
-      <c r="BD37" s="86"/>
-      <c r="BE37" s="92"/>
-      <c r="BF37" s="92"/>
-      <c r="BG37" s="92"/>
-      <c r="BH37" s="92"/>
-      <c r="BI37" s="92"/>
-      <c r="BJ37" s="95"/>
+      <c r="BD37" s="80"/>
+      <c r="BE37" s="86"/>
+      <c r="BF37" s="86"/>
+      <c r="BG37" s="86"/>
+      <c r="BH37" s="86"/>
+      <c r="BI37" s="86"/>
+      <c r="BJ37" s="89"/>
       <c r="BK37" s="14"/>
       <c r="BL37" s="14"/>
       <c r="BM37" s="14"/>
@@ -5134,13 +5127,13 @@
       <c r="BB38" s="27"/>
       <c r="BC38" s="27"/>
       <c r="BD38" s="14"/>
-      <c r="BE38" s="82"/>
-      <c r="BF38" s="97"/>
-      <c r="BG38" s="97"/>
-      <c r="BH38" s="97"/>
-      <c r="BI38" s="97"/>
-      <c r="BJ38" s="97"/>
-      <c r="BK38" s="90"/>
+      <c r="BE38" s="76"/>
+      <c r="BF38" s="91"/>
+      <c r="BG38" s="91"/>
+      <c r="BH38" s="91"/>
+      <c r="BI38" s="91"/>
+      <c r="BJ38" s="91"/>
+      <c r="BK38" s="84"/>
       <c r="BL38" s="14"/>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14"/>
@@ -5230,13 +5223,13 @@
       <c r="BC39" s="27"/>
       <c r="BD39" s="14"/>
       <c r="BE39" s="14"/>
-      <c r="BF39" s="82"/>
-      <c r="BG39" s="88"/>
-      <c r="BH39" s="88"/>
-      <c r="BI39" s="88"/>
-      <c r="BJ39" s="88"/>
-      <c r="BK39" s="88"/>
-      <c r="BL39" s="79"/>
+      <c r="BF39" s="76"/>
+      <c r="BG39" s="82"/>
+      <c r="BH39" s="82"/>
+      <c r="BI39" s="82"/>
+      <c r="BJ39" s="82"/>
+      <c r="BK39" s="82"/>
+      <c r="BL39" s="73"/>
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
       <c r="BO39" s="14"/>
@@ -5326,11 +5319,11 @@
       <c r="BD40" s="14"/>
       <c r="BE40" s="14"/>
       <c r="BF40" s="14"/>
-      <c r="BG40" s="82"/>
-      <c r="BH40" s="92"/>
-      <c r="BI40" s="83"/>
-      <c r="BJ40" s="78"/>
-      <c r="BK40" s="77"/>
+      <c r="BG40" s="76"/>
+      <c r="BH40" s="86"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="72"/>
+      <c r="BK40" s="71"/>
       <c r="BL40" s="14"/>
       <c r="BM40" s="14"/>
       <c r="BN40" s="14"/>
@@ -5422,9 +5415,9 @@
       <c r="BE41" s="14"/>
       <c r="BF41" s="14"/>
       <c r="BG41" s="14"/>
-      <c r="BH41" s="77"/>
-      <c r="BI41" s="104"/>
-      <c r="BJ41" s="91"/>
+      <c r="BH41" s="71"/>
+      <c r="BI41" s="98"/>
+      <c r="BJ41" s="85"/>
       <c r="BK41" s="14"/>
       <c r="BL41" s="14"/>
       <c r="BM41" s="14"/>
@@ -5518,9 +5511,9 @@
       <c r="BF42" s="14"/>
       <c r="BG42" s="14"/>
       <c r="BH42" s="14"/>
-      <c r="BI42" s="99"/>
-      <c r="BJ42" s="88"/>
-      <c r="BK42" s="79"/>
+      <c r="BI42" s="93"/>
+      <c r="BJ42" s="82"/>
+      <c r="BK42" s="73"/>
       <c r="BL42" s="14"/>
       <c r="BM42" s="14"/>
       <c r="BN42" s="14"/>
@@ -5614,7 +5607,7 @@
       <c r="BG43" s="14"/>
       <c r="BH43" s="14"/>
       <c r="BI43" s="27"/>
-      <c r="BJ43" s="78"/>
+      <c r="BJ43" s="72"/>
       <c r="BK43" s="69"/>
       <c r="BL43" s="14"/>
       <c r="BM43" s="14"/>
@@ -5711,7 +5704,7 @@
       <c r="BI44" s="27"/>
       <c r="BJ44" s="27"/>
       <c r="BK44" s="14"/>
-      <c r="BL44" s="94"/>
+      <c r="BL44" s="88"/>
       <c r="BM44" s="14"/>
       <c r="BN44" s="14"/>
       <c r="BO44" s="14"/>
@@ -5926,11 +5919,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -5940,6 +5928,11 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Gantt-chart.xlsx
+++ b/Gantt-chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072ABC2-EA10-4A6A-AA6A-71D4EF606FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B9633-E768-4F3A-AF5F-32CE0F9697AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -377,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF215881"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,9 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1053,9 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1062,14 +1065,14 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1554,7 +1557,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1613,25 +1616,25 @@
       <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="102">
+      <c r="D3" s="98">
         <v>45565</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="103"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="99">
         <f>G5</f>
         <v>45565</v>
@@ -1757,7 +1760,7 @@
       <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45565</v>
@@ -2242,8 +2245,8 @@
         <v>14</v>
       </c>
       <c r="C8" s="40" t="str">
-        <f>AE1</f>
-        <v>Mindenki</v>
+        <f>AL1</f>
+        <v>Nagy Ádám</v>
       </c>
       <c r="D8" s="41">
         <v>45565</v>
@@ -2252,20 +2255,20 @@
         <v>45578</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
       <c r="U8" s="73"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -2349,10 +2352,10 @@
       <c r="G9" s="71"/>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="77"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="71"/>
       <c r="O9" s="71"/>
       <c r="P9" s="71"/>
@@ -2437,8 +2440,8 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -2448,9 +2451,9 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
@@ -2541,12 +2544,12 @@
       <c r="R11" s="14"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="85"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="84"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
@@ -2636,12 +2639,12 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="83"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="82"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
@@ -2732,11 +2735,11 @@
       <c r="T13" s="27"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="89"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="88"/>
       <c r="AB13" s="74"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
@@ -2828,11 +2831,11 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
       <c r="AC14" s="73"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
@@ -2924,11 +2927,11 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="84"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="83"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
@@ -3020,10 +3023,10 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
       <c r="AD16" s="73"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
@@ -3117,7 +3120,7 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="72"/>
-      <c r="AB17" s="87"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="71"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
@@ -3211,12 +3214,12 @@
       <c r="AF18" s="29"/>
       <c r="AG18" s="29"/>
       <c r="AH18" s="29"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="94"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
       <c r="AO18" s="29"/>
       <c r="AP18" s="29"/>
       <c r="AQ18" s="29"/>
@@ -3309,12 +3312,12 @@
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
       <c r="AI19" s="14"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="83"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="82"/>
       <c r="AP19" s="14"/>
       <c r="AQ19" s="14"/>
       <c r="AR19" s="14"/>
@@ -3404,12 +3407,12 @@
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
       <c r="AI20" s="14"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="86"/>
-      <c r="AO20" s="83"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="82"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
@@ -3500,18 +3503,18 @@
       <c r="AH21" s="27"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="90"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="89"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="89"/>
+      <c r="AO21" s="88"/>
       <c r="AP21" s="74"/>
       <c r="AQ21" s="74"/>
       <c r="AR21" s="74"/>
       <c r="AS21" s="74"/>
       <c r="AT21" s="74"/>
-      <c r="AU21" s="85"/>
-      <c r="AV21" s="85"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
       <c r="AW21" s="14"/>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
@@ -3596,17 +3599,17 @@
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="79"/>
-      <c r="AS22" s="79"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="79"/>
-      <c r="AV22" s="79"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
       <c r="AW22" s="73"/>
       <c r="AX22" s="14"/>
       <c r="AY22" s="14"/>
@@ -3692,11 +3695,11 @@
       <c r="AJ23" s="14"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="96"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="81"/>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="95"/>
       <c r="AR23" s="71"/>
       <c r="AS23" s="71"/>
       <c r="AT23" s="71"/>
@@ -3788,11 +3791,11 @@
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="14"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="86"/>
-      <c r="AP24" s="86"/>
-      <c r="AQ24" s="86"/>
-      <c r="AR24" s="84"/>
+      <c r="AN24" s="91"/>
+      <c r="AO24" s="85"/>
+      <c r="AP24" s="85"/>
+      <c r="AQ24" s="85"/>
+      <c r="AR24" s="83"/>
       <c r="AS24" s="74"/>
       <c r="AT24" s="14"/>
       <c r="AU24" s="27"/>
@@ -3884,11 +3887,11 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="27"/>
-      <c r="AO25" s="92"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="90"/>
+      <c r="AO25" s="91"/>
+      <c r="AP25" s="89"/>
+      <c r="AQ25" s="89"/>
+      <c r="AR25" s="89"/>
+      <c r="AS25" s="89"/>
       <c r="AT25" s="73"/>
       <c r="AU25" s="27"/>
       <c r="AV25" s="27"/>
@@ -3980,12 +3983,12 @@
       <c r="AM26" s="14"/>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="84"/>
-      <c r="AU26" s="85"/>
+      <c r="AP26" s="75"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="84"/>
       <c r="AV26" s="27"/>
       <c r="AW26" s="14"/>
       <c r="AX26" s="14"/>
@@ -4076,12 +4079,12 @@
       <c r="AN27" s="27"/>
       <c r="AO27" s="27"/>
       <c r="AP27" s="14"/>
-      <c r="AQ27" s="76"/>
-      <c r="AR27" s="91"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91"/>
-      <c r="AV27" s="89"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="88"/>
       <c r="AW27" s="74"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
@@ -4172,12 +4175,12 @@
       <c r="AO28" s="27"/>
       <c r="AP28" s="14"/>
       <c r="AQ28" s="14"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="90"/>
-      <c r="AV28" s="90"/>
-      <c r="AW28" s="90"/>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="89"/>
+      <c r="AT28" s="89"/>
+      <c r="AU28" s="89"/>
+      <c r="AV28" s="89"/>
+      <c r="AW28" s="89"/>
       <c r="AX28" s="73"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
@@ -4268,12 +4271,12 @@
       <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
-      <c r="AS29" s="76"/>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="84"/>
+      <c r="AS29" s="75"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="83"/>
       <c r="AY29" s="74"/>
       <c r="AZ29" s="14"/>
       <c r="BA29" s="14"/>
@@ -4364,13 +4367,13 @@
       <c r="AQ30" s="14"/>
       <c r="AR30" s="14"/>
       <c r="AS30" s="14"/>
-      <c r="AT30" s="76"/>
-      <c r="AU30" s="90"/>
-      <c r="AV30" s="90"/>
-      <c r="AW30" s="90"/>
-      <c r="AX30" s="90"/>
-      <c r="AY30" s="90"/>
-      <c r="AZ30" s="84"/>
+      <c r="AT30" s="75"/>
+      <c r="AU30" s="89"/>
+      <c r="AV30" s="89"/>
+      <c r="AW30" s="89"/>
+      <c r="AX30" s="89"/>
+      <c r="AY30" s="89"/>
+      <c r="AZ30" s="83"/>
       <c r="BA30" s="14"/>
       <c r="BB30" s="27"/>
       <c r="BC30" s="27"/>
@@ -4460,13 +4463,13 @@
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
       <c r="AT31" s="14"/>
-      <c r="AU31" s="92"/>
-      <c r="AV31" s="86"/>
-      <c r="AW31" s="86"/>
-      <c r="AX31" s="86"/>
-      <c r="AY31" s="86"/>
-      <c r="AZ31" s="86"/>
-      <c r="BA31" s="84"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="85"/>
+      <c r="AW31" s="85"/>
+      <c r="AX31" s="85"/>
+      <c r="AY31" s="85"/>
+      <c r="AZ31" s="85"/>
+      <c r="BA31" s="83"/>
       <c r="BB31" s="27"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="14"/>
@@ -4556,13 +4559,13 @@
       <c r="AS32" s="14"/>
       <c r="AT32" s="14"/>
       <c r="AU32" s="27"/>
-      <c r="AV32" s="92"/>
-      <c r="AW32" s="97"/>
-      <c r="AX32" s="97"/>
-      <c r="AY32" s="97"/>
-      <c r="AZ32" s="97"/>
-      <c r="BA32" s="97"/>
-      <c r="BB32" s="89"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="96"/>
+      <c r="AX32" s="96"/>
+      <c r="AY32" s="96"/>
+      <c r="AZ32" s="96"/>
+      <c r="BA32" s="96"/>
+      <c r="BB32" s="88"/>
       <c r="BC32" s="27"/>
       <c r="BD32" s="14"/>
       <c r="BE32" s="14"/>
@@ -4652,13 +4655,13 @@
       <c r="AT33" s="14"/>
       <c r="AU33" s="27"/>
       <c r="AV33" s="27"/>
-      <c r="AW33" s="76"/>
-      <c r="AX33" s="91"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="91"/>
-      <c r="BA33" s="91"/>
-      <c r="BB33" s="91"/>
-      <c r="BC33" s="89"/>
+      <c r="AW33" s="75"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="90"/>
+      <c r="AZ33" s="90"/>
+      <c r="BA33" s="90"/>
+      <c r="BB33" s="90"/>
+      <c r="BC33" s="88"/>
       <c r="BD33" s="74"/>
       <c r="BE33" s="74"/>
       <c r="BF33" s="14"/>
@@ -4748,14 +4751,14 @@
       <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="14"/>
-      <c r="AX34" s="76"/>
-      <c r="AY34" s="82"/>
-      <c r="AZ34" s="82"/>
-      <c r="BA34" s="82"/>
-      <c r="BB34" s="82"/>
-      <c r="BC34" s="82"/>
-      <c r="BD34" s="82"/>
-      <c r="BE34" s="82"/>
+      <c r="AX34" s="75"/>
+      <c r="AY34" s="81"/>
+      <c r="AZ34" s="81"/>
+      <c r="BA34" s="81"/>
+      <c r="BB34" s="81"/>
+      <c r="BC34" s="81"/>
+      <c r="BD34" s="81"/>
+      <c r="BE34" s="81"/>
       <c r="BF34" s="73"/>
       <c r="BG34" s="14"/>
       <c r="BH34" s="14"/>
@@ -4844,9 +4847,9 @@
       <c r="AV35" s="27"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14"/>
-      <c r="AY35" s="76"/>
-      <c r="AZ35" s="79"/>
-      <c r="BA35" s="95"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="78"/>
+      <c r="BA35" s="94"/>
       <c r="BB35" s="72"/>
       <c r="BC35" s="72"/>
       <c r="BD35" s="71"/>
@@ -4932,16 +4935,16 @@
       <c r="AW36" s="22"/>
       <c r="AX36" s="22"/>
       <c r="AY36" s="22"/>
-      <c r="AZ36" s="78"/>
+      <c r="AZ36" s="77"/>
       <c r="BA36" s="22"/>
       <c r="BB36" s="22"/>
       <c r="BC36" s="22"/>
       <c r="BD36" s="22"/>
-      <c r="BE36" s="81"/>
-      <c r="BF36" s="81"/>
-      <c r="BG36" s="81"/>
-      <c r="BH36" s="81"/>
-      <c r="BI36" s="81"/>
+      <c r="BE36" s="80"/>
+      <c r="BF36" s="80"/>
+      <c r="BG36" s="80"/>
+      <c r="BH36" s="80"/>
+      <c r="BI36" s="80"/>
       <c r="BJ36" s="22"/>
       <c r="BK36" s="22"/>
       <c r="BL36" s="22"/>
@@ -5031,13 +5034,13 @@
       <c r="BA37" s="14"/>
       <c r="BB37" s="27"/>
       <c r="BC37" s="27"/>
-      <c r="BD37" s="80"/>
-      <c r="BE37" s="86"/>
-      <c r="BF37" s="86"/>
-      <c r="BG37" s="86"/>
-      <c r="BH37" s="86"/>
-      <c r="BI37" s="86"/>
-      <c r="BJ37" s="89"/>
+      <c r="BD37" s="79"/>
+      <c r="BE37" s="85"/>
+      <c r="BF37" s="85"/>
+      <c r="BG37" s="85"/>
+      <c r="BH37" s="85"/>
+      <c r="BI37" s="85"/>
+      <c r="BJ37" s="88"/>
       <c r="BK37" s="14"/>
       <c r="BL37" s="14"/>
       <c r="BM37" s="14"/>
@@ -5127,13 +5130,13 @@
       <c r="BB38" s="27"/>
       <c r="BC38" s="27"/>
       <c r="BD38" s="14"/>
-      <c r="BE38" s="76"/>
-      <c r="BF38" s="91"/>
-      <c r="BG38" s="91"/>
-      <c r="BH38" s="91"/>
-      <c r="BI38" s="91"/>
-      <c r="BJ38" s="91"/>
-      <c r="BK38" s="84"/>
+      <c r="BE38" s="75"/>
+      <c r="BF38" s="90"/>
+      <c r="BG38" s="90"/>
+      <c r="BH38" s="90"/>
+      <c r="BI38" s="90"/>
+      <c r="BJ38" s="90"/>
+      <c r="BK38" s="83"/>
       <c r="BL38" s="14"/>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14"/>
@@ -5223,12 +5226,12 @@
       <c r="BC39" s="27"/>
       <c r="BD39" s="14"/>
       <c r="BE39" s="14"/>
-      <c r="BF39" s="76"/>
-      <c r="BG39" s="82"/>
-      <c r="BH39" s="82"/>
-      <c r="BI39" s="82"/>
-      <c r="BJ39" s="82"/>
-      <c r="BK39" s="82"/>
+      <c r="BF39" s="75"/>
+      <c r="BG39" s="81"/>
+      <c r="BH39" s="81"/>
+      <c r="BI39" s="81"/>
+      <c r="BJ39" s="81"/>
+      <c r="BK39" s="81"/>
       <c r="BL39" s="73"/>
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
@@ -5319,9 +5322,9 @@
       <c r="BD40" s="14"/>
       <c r="BE40" s="14"/>
       <c r="BF40" s="14"/>
-      <c r="BG40" s="76"/>
-      <c r="BH40" s="86"/>
-      <c r="BI40" s="77"/>
+      <c r="BG40" s="75"/>
+      <c r="BH40" s="85"/>
+      <c r="BI40" s="76"/>
       <c r="BJ40" s="72"/>
       <c r="BK40" s="71"/>
       <c r="BL40" s="14"/>
@@ -5416,8 +5419,8 @@
       <c r="BF41" s="14"/>
       <c r="BG41" s="14"/>
       <c r="BH41" s="71"/>
-      <c r="BI41" s="98"/>
-      <c r="BJ41" s="85"/>
+      <c r="BI41" s="97"/>
+      <c r="BJ41" s="84"/>
       <c r="BK41" s="14"/>
       <c r="BL41" s="14"/>
       <c r="BM41" s="14"/>
@@ -5511,8 +5514,8 @@
       <c r="BF42" s="14"/>
       <c r="BG42" s="14"/>
       <c r="BH42" s="14"/>
-      <c r="BI42" s="93"/>
-      <c r="BJ42" s="82"/>
+      <c r="BI42" s="92"/>
+      <c r="BJ42" s="81"/>
       <c r="BK42" s="73"/>
       <c r="BL42" s="14"/>
       <c r="BM42" s="14"/>
@@ -5704,7 +5707,7 @@
       <c r="BI44" s="27"/>
       <c r="BJ44" s="27"/>
       <c r="BK44" s="14"/>
-      <c r="BL44" s="88"/>
+      <c r="BL44" s="87"/>
       <c r="BM44" s="14"/>
       <c r="BN44" s="14"/>
       <c r="BO44" s="14"/>
@@ -5919,6 +5922,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -5928,11 +5936,6 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
